--- a/San Francisco Giants.xlsx
+++ b/San Francisco Giants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>SFN</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,741 +429,840 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>818697</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>62</v>
+      </c>
+      <c r="F2">
         <v>9510</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>38800</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>8221714</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1528748</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
         <v>33446</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>55048</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>8947000</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1917168</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4">
         <v>42458</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>45816</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>7290000</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>1785297</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>83</v>
+      </c>
+      <c r="F5">
         <v>62275</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>50450</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>12380000</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2059701</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="F6">
         <v>89306</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>57232</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>14962834</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>1975528</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>85</v>
+      </c>
+      <c r="F7">
         <v>137377</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>70380</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>19335333</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>1737478</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
         <v>123591</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>54496</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>30967666</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>1560998</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
         <v>137550</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>53050</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>33163168</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2606354</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10">
         <v>198927</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>66650</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>35050000</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1704608</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
         <v>233872</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>69696</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>42638666</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1241500</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
         <v>322881</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>86034</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>36462777</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>1413922</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>68</v>
+      </c>
+      <c r="F13">
         <v>322630</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>78190</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>37144725</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>1690869</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
         <v>324400</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>72384</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>35592378</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>1925364</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>89</v>
+      </c>
+      <c r="F15">
         <v>311178</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>64148</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>42565834</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>2078399</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>86</v>
+      </c>
+      <c r="F16">
         <v>351277</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>67309</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>46595057</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>3318800</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>97</v>
+      </c>
+      <c r="F17">
         <v>337415</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>61126</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>53737826</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>3311958</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>90</v>
+      </c>
+      <c r="F18">
         <v>373410</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>64287</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>63280167</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>3253203</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="F19">
         <v>396387</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>65097</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>78299835</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>3264898</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
         <v>403169</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>63466</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>82852167</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>3256854</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>91</v>
+      </c>
+      <c r="F21">
         <v>506540</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>76601</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>82019166</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2005</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>3181023</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
         <v>445627</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>65000</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>90199500</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>3130313</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>76</v>
+      </c>
+      <c r="F23">
         <v>466921</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>65780</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>90056419</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>3223215</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>71</v>
+      </c>
+      <c r="F24">
         <v>488917</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>66560</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>90219056</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>2863837</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>72</v>
+      </c>
+      <c r="F25">
         <v>569821</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>75110</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>76594500</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>2862110</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>88</v>
+      </c>
+      <c r="F26">
         <v>573146</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>73360</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>83026450</v>
       </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>3037443</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="F27">
         <v>596386</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>74200</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>98641333</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>3387303</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>86</v>
+      </c>
+      <c r="F28">
         <v>597726</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>72360</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>118198333</v>
       </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>3377371</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>94</v>
+      </c>
+      <c r="F29">
         <v>689625</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>81300</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>117620683</v>
       </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>3326796</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>76</v>
+      </c>
+      <c r="F30">
         <v>666582</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>76720</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>140180334</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>3368697</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>88</v>
+      </c>
+      <c r="F31">
         <v>689150</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>77560</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>163510167</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>3375882</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>84</v>
+      </c>
+      <c r="F32">
         <v>686421</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>75600</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>164701500</v>
       </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>3365256</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="F33">
         <v>656825</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>70750</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>172253778</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
